--- a/New.xlsx
+++ b/New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\solar energy\solar energy\SolarProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4649C409-DBA8-4C93-84E4-C4A3863611D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B39286-9CA8-47FF-BF9B-BAC57A90CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6AB54D9-24BC-494E-A882-684426D89DE1}"/>
   </bookViews>
@@ -446,9 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290AF08-C554-4CDC-810B-D8BABF4B846E}">
   <dimension ref="A1:AC335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:AC1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/New.xlsx
+++ b/New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\solar energy\solar energy\SolarProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B39286-9CA8-47FF-BF9B-BAC57A90CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A830D-B731-4B3D-8F29-95D0F99053AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6AB54D9-24BC-494E-A882-684426D89DE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="13">
   <si>
     <t>Torsdag</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Onsdag</t>
   </si>
   <si>
-    <t xml:space="preserve">Date </t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Today</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:00:00 AM</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290AF08-C554-4CDC-810B-D8BABF4B846E}">
   <dimension ref="A1:AC335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -455,19 +460,19 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="5">
         <v>4.1666666666666664E-2</v>
@@ -538,8 +543,8 @@
       <c r="AB1" s="5">
         <v>0.95833333333333304</v>
       </c>
-      <c r="AC1" s="5">
-        <v>1</v>
+      <c r="AC1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
